--- a/dfnew2.xlsx
+++ b/dfnew2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN 10\Desktop\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B97C92B4-3224-4BC8-9C14-0F4C4EEE194E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88F5D72-A41A-4253-BA84-A73E6CCB912F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{40D88B20-7AD9-4CE8-86CC-7E79B48343E0}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1192,7 @@
         <v>0.89908324000000006</v>
       </c>
       <c r="I26">
-        <v>1059.6327039999999</v>
+        <v>10.596327039999998</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
